--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -44,6 +44,45 @@
   </si>
   <si>
     <t xml:space="preserve">Easy way to find teachers or home tutor nearby through Phone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score Batao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android, Java, XML, JSON, Firebase, Facebook authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Wahab, Muhammad Farhan Qamar, Sheikh Riaz Ul Haq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sports(Cricket) App generally which Update users  about Score of respectively game .In this Application user enter Recipient Mobile Number for receive Coverage of game According to Time Set in Application. In this Application we will use Score API (Application Programming Interface) to Fetch Current Score of Any Match. Also we will used SMS Manager API to send SMS Automatically to Recipient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoctorsApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabbia Akmal, Raza Suriya &amp; Mohammad Asad Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedagogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Studio. Sqlite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rida Hassan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This mobile application would aim to address literacy amongst the marginalized sections of society the basic idea is to have a portable mobile classroom which would move from places to places &amp; would gather the children and make them learn with electronic communication and resources. It could be anywhere. Making an app would make it work like a network &amp; we can get more people to participate for the cause as donors or volunteers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Donation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saeeda Ramzan, Sahar Sindhu, Faisal Jamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a donation app, which will make the excess stuff of anyone used by someone needy. Its like OLX.</t>
   </si>
 </sst>
 </file>
@@ -58,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -75,15 +115,17 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,16 +170,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,47 +212,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="128.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="141.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -214,17 +214,17 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -83,6 +83,54 @@
   </si>
   <si>
     <t xml:space="preserve">It is a donation app, which will make the excess stuff of anyone used by someone needy. Its like OLX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police Alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umair, Saad Ahmed, Muhammad Ata Jilani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police Alert Mobile Application enables citizens of the Karachi Police to receive various Safety, Security and Public services. You can avail various Police services through mobile phone. The efforts to improvise and add new services will continue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joystick Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umair Shuja, Sarang, Zohaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appoint A Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android studio,java,xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atoofa Akber, Hafiz Umer Bin Nasir, Soha Gazdar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This app alllows user to find Doctors in Karachi and appoint them by Call(if this service provided by them) and also this app allow user to interact with emergency services in case of Emergency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Voting System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junaid Shabbir, Muhammad Ghazali, Hamza Khalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This application provides is a new technique of casting votes using mobile phones. Android voting system is an application developed for android devices to deploy an easy and flexible way of casting votes anytime and from anywhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop in budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android, JSON, PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawahir Qayyum</t>
   </si>
 </sst>
 </file>
@@ -92,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,6 +171,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -170,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +248,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -212,19 +271,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="62.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,7 +314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="128.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="141.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -307,6 +366,70 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Project List.xlsx
+++ b/Project List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -131,6 +131,51 @@
   </si>
   <si>
     <t xml:space="preserve">Jawahir Qayyum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prize Bond Lagaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVA, Android, JSON, NODEJS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamza Mairaj, Talha Faraz, Fehmida, Fareeha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will save the user prize bond numbers and will notify them whenever they will win the prize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Ambulance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Samad, Mohammad Hamza Gaya, Syed Anwaar Ahmed Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Ambulance Mobile Application enables citizens of the Karachi Various Facilities for Example First Aid Guides , Doctors Consultancy , Nearby Hospitals and Emergency button that will Enabled citizen to Get an Ambulance Services on a Single Click When no One is Near you and u Got an Emergency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donate blood &amp; blood bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java, AndroidStudio, SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syeda Yousra Ali zaidi &amp; Syed Muhammad Zaki Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project is one of the great technical life saver application. The main aim of this application is to reduce the time spent in searching of blood donors in case of emergency. This system will keep track of all the latest updates relevant to the people who donate blood and who had donated blood in case of emergency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAAS ordering Resturaunt management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby on Rails, Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarrar Farman Ali, M.Saeed Salim, Umair Siddiqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital menus QRCode uses are just that much smarter. Guests use their own smartphone or tablet PC to scan the unique QR code. After scanning, a digital menu appears within seconds, which enables your guests to order by themselves. The order made through QRCode menu is sent directly to mEasyPOS Manager and eventually printed in kitchen, bar or starters printer. Using mEasyPOS Manager, you can update all your menu at once. Once the customer scans the QRCode, the menu appears automatically on customer’s mobile or tablet. Customers will be able to make order easily from their mobile. You can create promotions, change or add items and change prices as well. The design of the menu will follow your guidelines, so you ensure maximum branding. Orders are done directly for busy take-out restaurants and venues an easy way for customers to order food.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,16 +287,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -271,19 +308,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="62.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,98 +375,153 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="141.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="294.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
